--- a/ATTENDANCE.xlsx
+++ b/ATTENDANCE.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="PAGE" sheetId="1" r:id="rId1"/>
     <sheet name="TABLE" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>ATTENDANCE DETAILS</t>
   </si>
@@ -175,13 +175,43 @@
   </si>
   <si>
     <t>MODIFIED_ON</t>
+  </si>
+  <si>
+    <t>1.Here data will be inserted in table by giving details from date to to date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.After selecting a department ,in below table all employeedetails will be show as respective to that department </t>
+  </si>
+  <si>
+    <t>2.At department dropdown all department will be show</t>
+  </si>
+  <si>
+    <t>4.Attendance type is a dropdown where types are avaulable</t>
+  </si>
+  <si>
+    <t>5.intime &amp; outtime are only inputfields</t>
+  </si>
+  <si>
+    <t>6.remarks is a textbox</t>
+  </si>
+  <si>
+    <t>7.after giving all details data will be saved in table for from date to to date</t>
+  </si>
+  <si>
+    <t>8.if from date 01-05-2018 &amp; to date 10-05-2018 , then for each employee data will be inserted in table for each date saparately</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; and this will be for each employee also</t>
+  </si>
+  <si>
+    <t>9.Employee details table will be pagination table ,here we can search,filter &amp; get next buttons for next page datas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +230,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,10 +267,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,7 +361,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -359,7 +395,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,30 +570,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -581,17 +616,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="K8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -620,7 +655,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -635,7 +670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -650,7 +685,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -665,7 +700,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -680,7 +715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -689,7 +724,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -698,7 +733,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -707,7 +742,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -716,7 +751,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -736,7 +771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -744,7 +779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="D23" t="s">
         <v>23</v>
       </c>
@@ -752,13 +787,113 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>41</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -766,20 +901,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -787,7 +922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -795,7 +930,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -803,7 +938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -811,7 +946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -819,7 +954,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -827,7 +962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -835,7 +970,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -843,7 +978,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -851,7 +986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -859,7 +994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -867,7 +1002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -875,7 +1010,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -889,12 +1024,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ATTENDANCE.xlsx
+++ b/ATTENDANCE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PAGE" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
   <si>
     <t>ATTENDANCE DETAILS</t>
   </si>
@@ -205,13 +206,73 @@
   </si>
   <si>
     <t>9.Employee details table will be pagination table ,here we can search,filter &amp; get next buttons for next page datas</t>
+  </si>
+  <si>
+    <t>1.show all departmen api</t>
+  </si>
+  <si>
+    <t>viewdepartment</t>
+  </si>
+  <si>
+    <t>viewdepartmentemployee</t>
+  </si>
+  <si>
+    <t>2.show all employee details of perticular department</t>
+  </si>
+  <si>
+    <t>Attendance_Id</t>
+  </si>
+  <si>
+    <t>Varchar(20)</t>
+  </si>
+  <si>
+    <t>Employee_Id</t>
+  </si>
+  <si>
+    <t>Attendance_Date</t>
+  </si>
+  <si>
+    <t>Datetime</t>
+  </si>
+  <si>
+    <t>Attendance_Intime</t>
+  </si>
+  <si>
+    <t>Attendance_Outtime</t>
+  </si>
+  <si>
+    <t>Attendance_Type</t>
+  </si>
+  <si>
+    <t>Varchar(5)</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Varchar(Max)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Created_By</t>
+  </si>
+  <si>
+    <t>Created_On</t>
+  </si>
+  <si>
+    <t>Modified_By</t>
+  </si>
+  <si>
+    <t>Modified_On</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +280,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,22 +347,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -571,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:F39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -895,6 +973,24 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="D42" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="D43" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -902,10 +998,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1018,8 +1114,105 @@
         <v>32</v>
       </c>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
